--- a/BK-Calendar-Ver1-12.xlsx
+++ b/BK-Calendar-Ver1-12.xlsx
@@ -14728,10 +14728,10 @@
         <v>80</v>
       </c>
       <c r="I205" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J205" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>223</v>
@@ -14751,10 +14751,10 @@
       <c r="P205" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q205" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S205" s="2" t="s">
         <v>223</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>2</v>
       </c>
       <c r="J206" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>223</v>
@@ -14830,10 +14830,10 @@
       <c r="P206" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q206" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S206" s="2" t="s">
         <v>223</v>
       </c>
@@ -14886,10 +14886,10 @@
         <v>80</v>
       </c>
       <c r="I207" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J207" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K207" s="2" t="s">
         <v>223</v>
@@ -14909,10 +14909,10 @@
       <c r="P207" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q207" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S207" s="2" t="s">
         <v>223</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>5</v>
       </c>
       <c r="J208" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K208" s="2" t="s">
         <v>223</v>
@@ -14988,10 +14988,10 @@
       <c r="P208" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q208" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S208" s="2" t="s">
         <v>223</v>
       </c>
@@ -15044,10 +15044,10 @@
         <v>80</v>
       </c>
       <c r="I209" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J209" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K209" s="2" t="s">
         <v>223</v>
@@ -15123,10 +15123,10 @@
         <v>80</v>
       </c>
       <c r="I210" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J210" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>223</v>
@@ -15202,10 +15202,10 @@
         <v>80</v>
       </c>
       <c r="I211" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J211" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>223</v>
@@ -15281,10 +15281,10 @@
         <v>140</v>
       </c>
       <c r="I212" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J212" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K212" s="2" t="s">
         <v>223</v>
@@ -15363,7 +15363,7 @@
         <v>4</v>
       </c>
       <c r="J213" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>223</v>
@@ -15439,10 +15439,10 @@
         <v>140</v>
       </c>
       <c r="I214" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J214" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>223</v>
@@ -15518,10 +15518,10 @@
         <v>80</v>
       </c>
       <c r="I215" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J215" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K215" s="2" t="s">
         <v>223</v>
@@ -15541,10 +15541,10 @@
       <c r="P215" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q215" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S215" s="2" t="s">
         <v>223</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>80</v>
       </c>
       <c r="I216" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J216" s="2">
         <v>6</v>
@@ -15620,10 +15620,10 @@
       <c r="P216" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q216" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R216" s="2"/>
       <c r="S216" s="2" t="s">
         <v>223</v>
       </c>
@@ -15676,10 +15676,10 @@
         <v>80</v>
       </c>
       <c r="I217" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J217" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K217" s="2" t="s">
         <v>223</v>
@@ -15699,10 +15699,10 @@
       <c r="P217" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q217" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R217" s="2"/>
       <c r="S217" s="2" t="s">
         <v>223</v>
       </c>
@@ -15755,10 +15755,10 @@
         <v>80</v>
       </c>
       <c r="I218" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J218" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K218" s="2" t="s">
         <v>223</v>
@@ -15834,10 +15834,10 @@
         <v>80</v>
       </c>
       <c r="I219" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J219" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K219" s="2" t="s">
         <v>223</v>
@@ -15913,10 +15913,10 @@
         <v>140</v>
       </c>
       <c r="I220" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J220" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K220" s="2" t="s">
         <v>223</v>
@@ -15992,10 +15992,10 @@
         <v>140</v>
       </c>
       <c r="I221" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J221" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K221" s="2" t="s">
         <v>223</v>
@@ -16071,10 +16071,10 @@
         <v>80</v>
       </c>
       <c r="I222" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J222" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K222" s="2" t="s">
         <v>223</v>
@@ -16150,10 +16150,10 @@
         <v>80</v>
       </c>
       <c r="I223" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J223" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K223" s="2" t="s">
         <v>223</v>
@@ -16229,10 +16229,10 @@
         <v>80</v>
       </c>
       <c r="I224" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J224" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K224" s="2" t="s">
         <v>223</v>
@@ -16387,10 +16387,10 @@
         <v>80</v>
       </c>
       <c r="I226" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J226" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K226" s="2" t="s">
         <v>223</v>
@@ -16410,10 +16410,10 @@
       <c r="P226" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q226" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R226" s="2"/>
       <c r="S226" s="2" t="s">
         <v>223</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>3</v>
       </c>
       <c r="J227" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K227" s="2" t="s">
         <v>223</v>
@@ -16489,10 +16489,10 @@
       <c r="P227" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q227" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R227" s="2"/>
       <c r="S227" s="2" t="s">
         <v>223</v>
       </c>
@@ -16545,10 +16545,10 @@
         <v>160</v>
       </c>
       <c r="I228" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J228" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K228" s="2" t="s">
         <v>223</v>
@@ -16568,10 +16568,10 @@
       <c r="P228" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q228" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R228" s="2"/>
       <c r="S228" s="2" t="s">
         <v>223</v>
       </c>
@@ -16624,10 +16624,10 @@
         <v>160</v>
       </c>
       <c r="I229" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J229" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K229" s="2" t="s">
         <v>223</v>
@@ -16647,10 +16647,10 @@
       <c r="P229" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q229" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R229" s="2"/>
       <c r="S229" s="2" t="s">
         <v>223</v>
       </c>
@@ -16703,10 +16703,10 @@
         <v>80</v>
       </c>
       <c r="I230" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J230" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K230" s="2" t="s">
         <v>223</v>
@@ -16726,10 +16726,10 @@
       <c r="P230" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q230" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S230" s="2" t="s">
         <v>223</v>
       </c>
@@ -16782,10 +16782,10 @@
         <v>80</v>
       </c>
       <c r="I231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J231" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K231" s="2" t="s">
         <v>223</v>
@@ -16805,10 +16805,10 @@
       <c r="P231" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q231" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S231" s="2" t="s">
         <v>223</v>
       </c>
@@ -16861,10 +16861,10 @@
         <v>80</v>
       </c>
       <c r="I232" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J232" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K232" s="2" t="s">
         <v>223</v>
@@ -16884,10 +16884,10 @@
       <c r="P232" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q232" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S232" s="2" t="s">
         <v>223</v>
       </c>
@@ -16940,10 +16940,10 @@
         <v>80</v>
       </c>
       <c r="I233" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J233" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K233" s="2" t="s">
         <v>223</v>
@@ -16963,10 +16963,10 @@
       <c r="P233" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q233" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S233" s="2" t="s">
         <v>223</v>
       </c>
@@ -17019,11 +17019,11 @@
         <v>80</v>
       </c>
       <c r="I234" s="2">
+        <v>6</v>
+      </c>
+      <c r="J234" s="2">
         <v>4</v>
       </c>
-      <c r="J234" s="2">
-        <v>3</v>
-      </c>
       <c r="K234" s="2" t="s">
         <v>223</v>
       </c>
@@ -17042,10 +17042,10 @@
       <c r="P234" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q234" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S234" s="2" t="s">
         <v>223</v>
       </c>
@@ -17098,10 +17098,10 @@
         <v>80</v>
       </c>
       <c r="I235" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J235" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K235" s="2" t="s">
         <v>223</v>
@@ -17121,10 +17121,10 @@
       <c r="P235" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q235" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S235" s="2" t="s">
         <v>223</v>
       </c>
@@ -17200,10 +17200,10 @@
       <c r="P236" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q236" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="S236" s="2" t="s">
         <v>223</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>80</v>
       </c>
       <c r="I237" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J237" s="2">
         <v>10</v>
@@ -17279,10 +17279,10 @@
       <c r="P237" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q237" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R237" s="2"/>
       <c r="S237" s="2" t="s">
         <v>223</v>
       </c>
@@ -17335,10 +17335,10 @@
         <v>80</v>
       </c>
       <c r="I238" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J238" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K238" s="2" t="s">
         <v>223</v>
@@ -17358,10 +17358,10 @@
       <c r="P238" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q238" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R238" s="2"/>
       <c r="S238" s="2" t="s">
         <v>223</v>
       </c>
@@ -17414,10 +17414,10 @@
         <v>80</v>
       </c>
       <c r="I239" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J239" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K239" s="2" t="s">
         <v>223</v>
@@ -17437,10 +17437,10 @@
       <c r="P239" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q239" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R239" s="2"/>
       <c r="S239" s="2" t="s">
         <v>223</v>
       </c>
@@ -17493,10 +17493,10 @@
         <v>39.9</v>
       </c>
       <c r="I240" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J240" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
@@ -17514,16 +17514,16 @@
       <c r="T240" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
+      <c r="U240" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V240" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="W240" s="2"/>
-      <c r="X240" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
-      <c r="Z240" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z240" s="2"/>
       <c r="AA240" s="2" t="s">
         <v>223</v>
       </c>
@@ -17554,10 +17554,10 @@
         <v>39.9</v>
       </c>
       <c r="I241" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J241" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
@@ -17575,16 +17575,16 @@
       <c r="T241" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
+      <c r="U241" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V241" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="W241" s="2"/>
-      <c r="X241" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
-      <c r="Z241" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z241" s="2"/>
       <c r="AA241" s="2" t="s">
         <v>223</v>
       </c>
@@ -17615,10 +17615,10 @@
         <v>39.9</v>
       </c>
       <c r="I242" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J242" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -17636,16 +17636,16 @@
       <c r="T242" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
+      <c r="U242" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V242" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="W242" s="2"/>
-      <c r="X242" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
-      <c r="Z242" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z242" s="2"/>
       <c r="AA242" s="2" t="s">
         <v>223</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>3</v>
       </c>
       <c r="J243" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -17697,16 +17697,16 @@
       <c r="T243" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U243" s="2"/>
-      <c r="V243" s="2"/>
+      <c r="U243" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V243" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="W243" s="2"/>
-      <c r="X243" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
-      <c r="Z243" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z243" s="2"/>
       <c r="AA243" s="2" t="s">
         <v>223</v>
       </c>
@@ -17737,10 +17737,10 @@
         <v>39.9</v>
       </c>
       <c r="I244" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J244" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -17755,16 +17755,16 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
       <c r="U244" s="2"/>
-      <c r="V244" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V244" s="2"/>
       <c r="W244" s="2"/>
-      <c r="X244" s="2"/>
+      <c r="X244" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="Y244" s="2"/>
-      <c r="Z244" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA244" s="2"/>
+      <c r="Z244" s="2"/>
+      <c r="AA244" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AB244" s="2" t="s">
         <v>223</v>
       </c>
@@ -17794,10 +17794,10 @@
         <v>39.9</v>
       </c>
       <c r="I245" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J245" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -17811,10 +17811,10 @@
       <c r="R245" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S245" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T245" s="2"/>
       <c r="U245" s="2" t="s">
         <v>223</v>
       </c>
@@ -17824,11 +17824,11 @@
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
-      <c r="Z245" s="2"/>
+      <c r="Z245" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA245" s="2"/>
-      <c r="AB245" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
     </row>
     <row r="246" spans="1:29">
@@ -17855,10 +17855,10 @@
         <v>39.9</v>
       </c>
       <c r="I246" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J246" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -17872,10 +17872,10 @@
       <c r="R246" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S246" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T246" s="2"/>
       <c r="U246" s="2" t="s">
         <v>223</v>
       </c>
@@ -17885,11 +17885,11 @@
       <c r="W246" s="2"/>
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
+      <c r="Z246" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA246" s="2"/>
-      <c r="AB246" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB246" s="2"/>
       <c r="AC246" s="2"/>
     </row>
     <row r="247" spans="1:29">
@@ -17919,7 +17919,7 @@
         <v>6</v>
       </c>
       <c r="J247" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -17933,10 +17933,10 @@
       <c r="R247" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S247" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T247" s="2"/>
       <c r="U247" s="2" t="s">
         <v>223</v>
       </c>
@@ -17946,11 +17946,11 @@
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
-      <c r="Z247" s="2"/>
+      <c r="Z247" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA247" s="2"/>
-      <c r="AB247" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
     </row>
     <row r="248" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>39.9</v>
       </c>
       <c r="I248" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J248" s="2">
         <v>5</v>
@@ -17994,10 +17994,10 @@
       <c r="R248" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S248" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T248" s="2"/>
       <c r="U248" s="2" t="s">
         <v>223</v>
       </c>
@@ -18007,11 +18007,11 @@
       <c r="W248" s="2"/>
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
-      <c r="Z248" s="2"/>
+      <c r="Z248" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA248" s="2"/>
-      <c r="AB248" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
     </row>
     <row r="249" spans="1:29">
@@ -18038,10 +18038,10 @@
         <v>39.9</v>
       </c>
       <c r="I249" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J249" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
@@ -18055,10 +18055,10 @@
       <c r="R249" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S249" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T249" s="2"/>
       <c r="U249" s="2" t="s">
         <v>223</v>
       </c>
@@ -18068,11 +18068,11 @@
       <c r="W249" s="2"/>
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
-      <c r="Z249" s="2"/>
+      <c r="Z249" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA249" s="2"/>
-      <c r="AB249" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
     </row>
     <row r="250" spans="1:29">
@@ -18099,10 +18099,10 @@
         <v>39.9</v>
       </c>
       <c r="I250" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J250" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
@@ -18116,10 +18116,10 @@
       <c r="R250" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S250" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T250" s="2"/>
       <c r="U250" s="2" t="s">
         <v>223</v>
       </c>
@@ -18129,11 +18129,11 @@
       <c r="W250" s="2"/>
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
-      <c r="Z250" s="2"/>
+      <c r="Z250" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA250" s="2"/>
-      <c r="AB250" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
     </row>
     <row r="251" spans="1:29">
@@ -18160,10 +18160,10 @@
         <v>39.9</v>
       </c>
       <c r="I251" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J251" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
@@ -18177,10 +18177,10 @@
       <c r="R251" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S251" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T251" s="2"/>
       <c r="U251" s="2" t="s">
         <v>223</v>
       </c>
@@ -18190,11 +18190,11 @@
       <c r="W251" s="2"/>
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
-      <c r="Z251" s="2"/>
+      <c r="Z251" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA251" s="2"/>
-      <c r="AB251" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
     </row>
     <row r="252" spans="1:29">
@@ -18221,10 +18221,10 @@
         <v>39.9</v>
       </c>
       <c r="I252" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J252" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -18238,10 +18238,10 @@
       <c r="R252" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S252" s="2"/>
-      <c r="T252" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S252" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T252" s="2"/>
       <c r="U252" s="2" t="s">
         <v>223</v>
       </c>
@@ -18251,11 +18251,11 @@
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
-      <c r="Z252" s="2"/>
+      <c r="Z252" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA252" s="2"/>
-      <c r="AB252" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
     </row>
     <row r="253" spans="1:29">
@@ -18282,10 +18282,10 @@
         <v>39.9</v>
       </c>
       <c r="I253" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J253" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
@@ -18299,10 +18299,10 @@
       <c r="R253" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S253" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T253" s="2"/>
       <c r="U253" s="2" t="s">
         <v>223</v>
       </c>
@@ -18312,11 +18312,11 @@
       <c r="W253" s="2"/>
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
-      <c r="Z253" s="2"/>
+      <c r="Z253" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA253" s="2"/>
-      <c r="AB253" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
     </row>
     <row r="254" spans="1:29">
@@ -18343,10 +18343,10 @@
         <v>39.9</v>
       </c>
       <c r="I254" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J254" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
@@ -18360,10 +18360,10 @@
       <c r="R254" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S254" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T254" s="2"/>
       <c r="U254" s="2" t="s">
         <v>223</v>
       </c>
@@ -18373,11 +18373,11 @@
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
+      <c r="Z254" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AA254" s="2"/>
-      <c r="AB254" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
     </row>
     <row r="255" spans="1:29">
@@ -18404,10 +18404,10 @@
         <v>39.9</v>
       </c>
       <c r="I255" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J255" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
@@ -18415,26 +18415,26 @@
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
-      <c r="Q255" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
+      <c r="U255" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
       <c r="X255" s="2"/>
       <c r="Y255" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Z255" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z255" s="2"/>
       <c r="AA255" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AB255" s="2"/>
+      <c r="AB255" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AC255" s="2"/>
     </row>
     <row r="256" spans="1:29">
@@ -18461,7 +18461,7 @@
         <v>39.9</v>
       </c>
       <c r="I256" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J256" s="2">
         <v>3</v>
@@ -18472,26 +18472,26 @@
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
-      <c r="Q256" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
-      <c r="U256" s="2"/>
+      <c r="U256" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
       <c r="X256" s="2"/>
       <c r="Y256" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Z256" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z256" s="2"/>
       <c r="AA256" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AB256" s="2"/>
+      <c r="AB256" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AC256" s="2"/>
     </row>
     <row r="257" spans="1:29">
@@ -18518,10 +18518,10 @@
         <v>39.9</v>
       </c>
       <c r="I257" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J257" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -18529,26 +18529,26 @@
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
-      <c r="Q257" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
-      <c r="U257" s="2"/>
+      <c r="U257" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
       <c r="X257" s="2"/>
       <c r="Y257" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Z257" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Z257" s="2"/>
       <c r="AA257" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AB257" s="2"/>
+      <c r="AB257" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AC257" s="2"/>
     </row>
     <row r="258" spans="1:29">
@@ -18578,7 +18578,7 @@
         <v>4</v>
       </c>
       <c r="J258" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -18589,20 +18589,20 @@
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
       <c r="S258" s="2"/>
-      <c r="T258" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U258" s="2"/>
-      <c r="V258" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="T258" s="2"/>
+      <c r="U258" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V258" s="2"/>
       <c r="W258" s="2" t="s">
         <v>223</v>
       </c>
       <c r="X258" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Y258" s="2"/>
+      <c r="Y258" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="Z258" s="2" t="s">
         <v>223</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>3</v>
       </c>
       <c r="J259" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -18650,20 +18650,20 @@
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
       <c r="S259" s="2"/>
-      <c r="T259" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U259" s="2"/>
-      <c r="V259" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="T259" s="2"/>
+      <c r="U259" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V259" s="2"/>
       <c r="W259" s="2" t="s">
         <v>223</v>
       </c>
       <c r="X259" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Y259" s="2"/>
+      <c r="Y259" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="Z259" s="2" t="s">
         <v>223</v>
       </c>
@@ -18697,10 +18697,10 @@
         <v>39.9</v>
       </c>
       <c r="I260" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J260" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -18709,9 +18709,7 @@
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
-      <c r="R260" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="R260" s="2"/>
       <c r="S260" s="2"/>
       <c r="T260" s="2" t="s">
         <v>223</v>
@@ -18719,19 +18717,21 @@
       <c r="U260" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="V260" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="W260" s="2"/>
-      <c r="X260" s="2"/>
+      <c r="V260" s="2"/>
+      <c r="W260" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="X260" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AA260" s="2"/>
-      <c r="AB260" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AA260" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
     </row>
     <row r="261" spans="1:29">
@@ -18758,10 +18758,10 @@
         <v>39.9</v>
       </c>
       <c r="I261" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J261" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -18770,9 +18770,7 @@
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
-      <c r="R261" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="R261" s="2"/>
       <c r="S261" s="2"/>
       <c r="T261" s="2" t="s">
         <v>223</v>
@@ -18780,19 +18778,21 @@
       <c r="U261" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="V261" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="W261" s="2"/>
-      <c r="X261" s="2"/>
+      <c r="V261" s="2"/>
+      <c r="W261" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="X261" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AA261" s="2"/>
-      <c r="AB261" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="AA261" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
     </row>
     <row r="262" spans="1:29">
@@ -18819,10 +18819,10 @@
         <v>39.9</v>
       </c>
       <c r="I262" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J262" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -18830,26 +18830,26 @@
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
+      <c r="Q262" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R262" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S262" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T262" s="2"/>
       <c r="U262" s="2"/>
-      <c r="V262" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V262" s="2"/>
       <c r="W262" s="2"/>
       <c r="X262" s="2"/>
-      <c r="Y262" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z262" s="2"/>
-      <c r="AA262" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB262" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y262" s="2"/>
+      <c r="Z262" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA262" s="2"/>
+      <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
     </row>
     <row r="263" spans="1:29">
@@ -18876,10 +18876,10 @@
         <v>39.9</v>
       </c>
       <c r="I263" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J263" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -18887,26 +18887,26 @@
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
+      <c r="Q263" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R263" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S263" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T263" s="2"/>
       <c r="U263" s="2"/>
-      <c r="V263" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V263" s="2"/>
       <c r="W263" s="2"/>
       <c r="X263" s="2"/>
-      <c r="Y263" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z263" s="2"/>
-      <c r="AA263" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB263" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y263" s="2"/>
+      <c r="Z263" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA263" s="2"/>
+      <c r="AB263" s="2"/>
       <c r="AC263" s="2"/>
     </row>
     <row r="264" spans="1:29">
@@ -18933,10 +18933,10 @@
         <v>39.9</v>
       </c>
       <c r="I264" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J264" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -18944,26 +18944,26 @@
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
+      <c r="Q264" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R264" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S264" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T264" s="2"/>
       <c r="U264" s="2"/>
-      <c r="V264" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V264" s="2"/>
       <c r="W264" s="2"/>
       <c r="X264" s="2"/>
-      <c r="Y264" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z264" s="2"/>
-      <c r="AA264" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB264" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y264" s="2"/>
+      <c r="Z264" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA264" s="2"/>
+      <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
     </row>
     <row r="265" spans="1:29">
@@ -18990,10 +18990,10 @@
         <v>39.9</v>
       </c>
       <c r="I265" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J265" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -19001,26 +19001,26 @@
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
-      <c r="Q265" s="2"/>
-      <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
+      <c r="Q265" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R265" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S265" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T265" s="2"/>
       <c r="U265" s="2"/>
-      <c r="V265" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V265" s="2"/>
       <c r="W265" s="2"/>
       <c r="X265" s="2"/>
-      <c r="Y265" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z265" s="2"/>
-      <c r="AA265" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB265" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y265" s="2"/>
+      <c r="Z265" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA265" s="2"/>
+      <c r="AB265" s="2"/>
       <c r="AC265" s="2"/>
     </row>
     <row r="266" spans="1:29">
@@ -19047,10 +19047,10 @@
         <v>39.9</v>
       </c>
       <c r="I266" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J266" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -19058,26 +19058,26 @@
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
       <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
+      <c r="Q266" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R266" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S266" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T266" s="2"/>
       <c r="U266" s="2"/>
-      <c r="V266" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V266" s="2"/>
       <c r="W266" s="2"/>
       <c r="X266" s="2"/>
-      <c r="Y266" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z266" s="2"/>
-      <c r="AA266" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB266" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y266" s="2"/>
+      <c r="Z266" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA266" s="2"/>
+      <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
     </row>
     <row r="267" spans="1:29">
@@ -19104,10 +19104,10 @@
         <v>39.9</v>
       </c>
       <c r="I267" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J267" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -19115,26 +19115,26 @@
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
+      <c r="Q267" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R267" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S267" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T267" s="2"/>
       <c r="U267" s="2"/>
-      <c r="V267" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V267" s="2"/>
       <c r="W267" s="2"/>
       <c r="X267" s="2"/>
-      <c r="Y267" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z267" s="2"/>
-      <c r="AA267" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB267" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y267" s="2"/>
+      <c r="Z267" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA267" s="2"/>
+      <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
     </row>
     <row r="268" spans="1:29">
@@ -19164,7 +19164,7 @@
         <v>4</v>
       </c>
       <c r="J268" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
@@ -19172,26 +19172,26 @@
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
+      <c r="Q268" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R268" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S268" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T268" s="2"/>
       <c r="U268" s="2"/>
-      <c r="V268" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V268" s="2"/>
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
-      <c r="Y268" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z268" s="2"/>
-      <c r="AA268" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB268" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y268" s="2"/>
+      <c r="Z268" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA268" s="2"/>
+      <c r="AB268" s="2"/>
       <c r="AC268" s="2"/>
     </row>
     <row r="269" spans="1:29">
@@ -19218,10 +19218,10 @@
         <v>39.9</v>
       </c>
       <c r="I269" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J269" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -19229,26 +19229,26 @@
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
+      <c r="Q269" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R269" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S269" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T269" s="2"/>
       <c r="U269" s="2"/>
-      <c r="V269" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V269" s="2"/>
       <c r="W269" s="2"/>
       <c r="X269" s="2"/>
-      <c r="Y269" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z269" s="2"/>
-      <c r="AA269" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB269" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y269" s="2"/>
+      <c r="Z269" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA269" s="2"/>
+      <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
     </row>
     <row r="270" spans="1:29">
@@ -19275,10 +19275,10 @@
         <v>39.9</v>
       </c>
       <c r="I270" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J270" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -19286,26 +19286,26 @@
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
+      <c r="Q270" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R270" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S270" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T270" s="2"/>
       <c r="U270" s="2"/>
-      <c r="V270" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V270" s="2"/>
       <c r="W270" s="2"/>
       <c r="X270" s="2"/>
-      <c r="Y270" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z270" s="2"/>
-      <c r="AA270" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB270" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y270" s="2"/>
+      <c r="Z270" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA270" s="2"/>
+      <c r="AB270" s="2"/>
       <c r="AC270" s="2"/>
     </row>
     <row r="271" spans="1:29">
@@ -19332,7 +19332,7 @@
         <v>39.9</v>
       </c>
       <c r="I271" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J271" s="2">
         <v>5</v>
@@ -19343,26 +19343,26 @@
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
+      <c r="Q271" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R271" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S271" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T271" s="2"/>
       <c r="U271" s="2"/>
-      <c r="V271" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V271" s="2"/>
       <c r="W271" s="2"/>
       <c r="X271" s="2"/>
-      <c r="Y271" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z271" s="2"/>
-      <c r="AA271" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB271" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y271" s="2"/>
+      <c r="Z271" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA271" s="2"/>
+      <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
     </row>
     <row r="272" spans="1:29">
@@ -19389,10 +19389,10 @@
         <v>39.9</v>
       </c>
       <c r="I272" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J272" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -19400,26 +19400,26 @@
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
+      <c r="Q272" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R272" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S272" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T272" s="2"/>
       <c r="U272" s="2"/>
-      <c r="V272" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="V272" s="2"/>
       <c r="W272" s="2"/>
       <c r="X272" s="2"/>
-      <c r="Y272" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z272" s="2"/>
-      <c r="AA272" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB272" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y272" s="2"/>
+      <c r="Z272" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA272" s="2"/>
+      <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
     </row>
   </sheetData>
